--- a/data/trans_camb/P23_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_5_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 1,89</t>
+          <t>-3,66; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 0,4</t>
+          <t>-4,79; 2,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 7,69</t>
+          <t>-6,83; 0,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,23</t>
+          <t>-6,04; 3,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,9</t>
+          <t>-3,74; 5,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,87</t>
+          <t>-5,13; 5,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 2,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 3,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 3,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-32,35%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-55,73%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>-65,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,88%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,82%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-11,62%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 58,32</t>
+          <t>-69,07; 475,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,66; 18,09</t>
+          <t>-77,7; 306,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 227,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 47,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 128,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 180,03</t>
+          <t>-60,8; 87,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 22,12</t>
+          <t>-38,98; 158,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 38,88</t>
+          <t>-56,89; 142,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 127,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-46,7; 97,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-35,82; 119,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-59,17; 93,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,1</t>
+          <t>-0,17; 8,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,89</t>
+          <t>-2,8; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,09</t>
+          <t>-3,36; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,45</t>
+          <t>-4,05; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,94</t>
+          <t>-4,84; 2,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,28</t>
+          <t>-5,17; 2,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 4,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 1,86</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 2,03</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>-4,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 134,7</t>
+          <t>-9,36; 271,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 46,64</t>
+          <t>-44,94; 84,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 129,36</t>
+          <t>-54,19; 92,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 76,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 58,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 117,24</t>
+          <t>-53,98; 121,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 67,01</t>
+          <t>-59,55; 88,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 34,14</t>
+          <t>-67,34; 99,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 93,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 130,79</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,0; 55,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-46,44; 60,6</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 1,11</t>
+          <t>-7,73; 2,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,33</t>
+          <t>-8,88; 0,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 7,21</t>
+          <t>-5,86; 5,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,13</t>
+          <t>-1,63; 2,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,66</t>
+          <t>0,04; 4,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,47</t>
+          <t>0,24; 5,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 1,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 2,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 4,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-53,79%</t>
+          <t>-37,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,21%</t>
+          <t>-47,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,44%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>121,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,17%</t>
+          <t>144,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,74%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>69,18%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,71; 65,44</t>
+          <t>-93,93; 135,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,24; 35,34</t>
+          <t>-89,14; 78,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 277,73</t>
+          <t>-77,22; 287,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,53; 100,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 191,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,57; 110,34</t>
+          <t>-57,26; 270,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,32; 31,54</t>
+          <t>-4,72; 461,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 65,08</t>
+          <t>-3,83; 580,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 123,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-72,81; 95,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-53,56; 135,37</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-32,72; 254,85</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,89</t>
+          <t>-5,79; 0,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,43</t>
+          <t>-3,91; 2,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,82</t>
+          <t>-5,38; 0,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,67</t>
+          <t>-4,59; 1,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; -0,37</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 1,16</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>-46,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-33,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>-33,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>-25,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-40,11%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-18,08%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 47,45</t>
+          <t>-76,01; 5,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 3,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 104,88</t>
+          <t>-54,26; 62,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 34,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 59,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 103,62</t>
+          <t>-67,09; 20,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 23,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 16,51</t>
+          <t>-62,02; 30,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,68; 84,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-64,74; -4,6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-49,81; 23,44</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 2,11</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 0,25</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 1,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 0,86</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 2,14</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 2,03</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 1,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 0,75</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 1,13</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-28,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-10,51%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,76%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-7,77%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-10,08%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-34,94; 54,31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-53,75; 7,26</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-43,47; 35,39</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; 22,14</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,97; 49,73</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,0; 49,72</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; 23,74</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-29,39; 17,87</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 26,19</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
